--- a/cases.xlsx
+++ b/cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavelfomin/Desktop/Netology/Diplom/diplom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFEB393-7D8A-7B41-B6DC-4FD4E36ECA9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4101F6BA-761B-8C4E-B39D-CF7194F8A83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,16 +108,10 @@
     <t>3 В правом верхнем углу экрана расположена кнопка с изображением бабочки, при нажатии на кнопку выполняется переход в раздел цитат</t>
   </si>
   <si>
-    <t>4 Проверить наличие и работоспособность кропки управления профилем</t>
-  </si>
-  <si>
     <t>4 В правом верхнем углу экрана расположена кнопка с изображением человека, при нажатии на кнопку появляется всплывающее меню с элементами управления профилем: редактирование профиля, выход из аккаунта</t>
   </si>
   <si>
     <t xml:space="preserve">5 Проверить отображение и работоспособность блока последних новостей </t>
-  </si>
-  <si>
-    <t>5 Вверху рабочей области экрана расположен раскрывающего список новостей. По умолчанию список развернут, при нажатии на заголовок списка он сворачивается. В блоке размещены новости, добавленные ранее в предусловии. Для каждой новости отображается название, иконка и кнопка разворачивания описания</t>
   </si>
   <si>
     <t>6 Проверить наличие и работоспособность кнопки перехода к полному списку новостей</t>
@@ -633,6 +627,12 @@
   </si>
   <si>
     <t>Открывается окно входа в приложение</t>
+  </si>
+  <si>
+    <t>4 Проверить наличие и работоспособность кнопки управления профилем</t>
+  </si>
+  <si>
+    <t>5 Вверху рабочей области экрана расположен раскрывающийся список новостей. По умолчанию список развернут, при нажатии на заголовок списка он сворачивается. В блоке размещены новости, добавленные ранее в предусловии. Для каждой новости отображается название, иконка и кнопка разворачивания описания</t>
   </si>
 </sst>
 </file>
@@ -841,7 +841,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1007,6 +1007,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1328,8 +1331,8 @@
   <dimension ref="A1:G973"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F118" sqref="F118"/>
+      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1453,11 +1456,11 @@
       <c r="C7" s="48"/>
       <c r="D7" s="48"/>
       <c r="E7" s="48"/>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="G7" s="18" t="s">
         <v>22</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="98" x14ac:dyDescent="0.15">
@@ -1467,10 +1470,10 @@
       <c r="D8" s="48"/>
       <c r="E8" s="48"/>
       <c r="F8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="G8" s="58" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="56" x14ac:dyDescent="0.15">
@@ -1480,10 +1483,10 @@
       <c r="D9" s="48"/>
       <c r="E9" s="48"/>
       <c r="F9" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="93" customHeight="1" x14ac:dyDescent="0.15">
@@ -1493,10 +1496,10 @@
       <c r="D10" s="48"/>
       <c r="E10" s="48"/>
       <c r="F10" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -1504,20 +1507,20 @@
         <v>3</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C11" s="43"/>
       <c r="D11" s="31" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="56" x14ac:dyDescent="0.15">
@@ -1527,10 +1530,10 @@
       <c r="D12" s="44"/>
       <c r="E12" s="28"/>
       <c r="F12" s="20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="56" x14ac:dyDescent="0.15">
@@ -1540,10 +1543,10 @@
       <c r="D13" s="44"/>
       <c r="E13" s="28"/>
       <c r="F13" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -1551,20 +1554,20 @@
         <v>4</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C14" s="35"/>
       <c r="D14" s="39" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="41" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="56" x14ac:dyDescent="0.15">
@@ -1574,10 +1577,10 @@
       <c r="D15" s="40"/>
       <c r="E15" s="42"/>
       <c r="F15" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="42" x14ac:dyDescent="0.15">
@@ -1587,10 +1590,10 @@
       <c r="D16" s="40"/>
       <c r="E16" s="42"/>
       <c r="F16" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="42" x14ac:dyDescent="0.15">
@@ -1600,10 +1603,10 @@
       <c r="D17" s="40"/>
       <c r="E17" s="42"/>
       <c r="F17" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="42" x14ac:dyDescent="0.15">
@@ -1613,10 +1616,10 @@
       <c r="D18" s="40"/>
       <c r="E18" s="42"/>
       <c r="F18" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="42" x14ac:dyDescent="0.15">
@@ -1626,10 +1629,10 @@
       <c r="D19" s="40"/>
       <c r="E19" s="42"/>
       <c r="F19" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="59" customHeight="1" x14ac:dyDescent="0.15">
@@ -1639,10 +1642,10 @@
       <c r="D20" s="40"/>
       <c r="E20" s="42"/>
       <c r="F20" s="22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -1650,20 +1653,20 @@
         <v>5</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C21" s="30"/>
       <c r="D21" s="31" t="s">
         <v>8</v>
       </c>
       <c r="E21" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="12" t="s">
-        <v>51</v>
-      </c>
       <c r="G21" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -1673,10 +1676,10 @@
       <c r="D22" s="31"/>
       <c r="E22" s="29"/>
       <c r="F22" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -1686,10 +1689,10 @@
       <c r="D23" s="31"/>
       <c r="E23" s="29"/>
       <c r="F23" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -1699,10 +1702,10 @@
       <c r="D24" s="31"/>
       <c r="E24" s="29"/>
       <c r="F24" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="14" t="s">
         <v>54</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -1712,10 +1715,10 @@
       <c r="D25" s="31"/>
       <c r="E25" s="29"/>
       <c r="F25" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -1725,10 +1728,10 @@
       <c r="D26" s="31"/>
       <c r="E26" s="29"/>
       <c r="F26" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.15">
@@ -1736,20 +1739,20 @@
         <v>6</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C27" s="30"/>
       <c r="D27" s="31" t="s">
         <v>8</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -1759,10 +1762,10 @@
       <c r="D28" s="28"/>
       <c r="E28" s="29"/>
       <c r="F28" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -1772,10 +1775,10 @@
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
       <c r="F29" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -1785,10 +1788,10 @@
       <c r="D30" s="28"/>
       <c r="E30" s="29"/>
       <c r="F30" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -1798,10 +1801,10 @@
       <c r="D31" s="28"/>
       <c r="E31" s="29"/>
       <c r="F31" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -1811,10 +1814,10 @@
       <c r="D32" s="28"/>
       <c r="E32" s="29"/>
       <c r="F32" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -1822,7 +1825,7 @@
         <v>7</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C33" s="30"/>
       <c r="D33" s="31" t="s">
@@ -1830,10 +1833,10 @@
       </c>
       <c r="E33" s="29"/>
       <c r="F33" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -1843,10 +1846,10 @@
       <c r="D34" s="31"/>
       <c r="E34" s="29"/>
       <c r="F34" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -1856,10 +1859,10 @@
       <c r="D35" s="31"/>
       <c r="E35" s="29"/>
       <c r="F35" s="21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -1867,18 +1870,18 @@
         <v>8</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C36" s="30"/>
       <c r="D36" s="31" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E36" s="38"/>
       <c r="F36" s="21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -1888,10 +1891,10 @@
       <c r="D37" s="31"/>
       <c r="E37" s="38"/>
       <c r="F37" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -1901,10 +1904,10 @@
       <c r="D38" s="31"/>
       <c r="E38" s="38"/>
       <c r="F38" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="42" x14ac:dyDescent="0.15">
@@ -1914,10 +1917,10 @@
       <c r="D39" s="31"/>
       <c r="E39" s="38"/>
       <c r="F39" s="21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.15">
@@ -1925,17 +1928,17 @@
         <v>9</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C40" s="30"/>
       <c r="D40" s="28" t="s">
         <v>8</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G40" s="13"/>
     </row>
@@ -1946,10 +1949,10 @@
       <c r="D41" s="28"/>
       <c r="E41" s="29"/>
       <c r="F41" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G41" s="24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="42" x14ac:dyDescent="0.15">
@@ -1959,10 +1962,10 @@
       <c r="D42" s="28"/>
       <c r="E42" s="29"/>
       <c r="F42" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G42" s="24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -1970,17 +1973,17 @@
         <v>10</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C43" s="30"/>
       <c r="D43" s="28" t="s">
         <v>8</v>
       </c>
       <c r="E43" s="29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G43" s="23"/>
     </row>
@@ -1991,10 +1994,10 @@
       <c r="D44" s="28"/>
       <c r="E44" s="29"/>
       <c r="F44" s="21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G44" s="24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -2002,20 +2005,20 @@
         <v>11</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C45" s="30"/>
       <c r="D45" s="28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E45" s="29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G45" s="29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -2025,7 +2028,7 @@
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
       <c r="F46" s="21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G46" s="29"/>
     </row>
@@ -2034,17 +2037,17 @@
         <v>12</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C47" s="35"/>
       <c r="D47" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E47" s="25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G47" s="13"/>
     </row>
@@ -2055,10 +2058,10 @@
       <c r="D48" s="33"/>
       <c r="E48" s="26"/>
       <c r="F48" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="56" x14ac:dyDescent="0.15">
@@ -2068,10 +2071,10 @@
       <c r="D49" s="34"/>
       <c r="E49" s="27"/>
       <c r="F49" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.15">
@@ -2079,17 +2082,17 @@
         <v>13</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C50" s="30"/>
       <c r="D50" s="28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E50" s="29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G50" s="23"/>
     </row>
@@ -2100,7 +2103,7 @@
       <c r="D51" s="28"/>
       <c r="E51" s="29"/>
       <c r="F51" s="21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G51" s="13"/>
     </row>
@@ -2111,10 +2114,10 @@
       <c r="D52" s="28"/>
       <c r="E52" s="29"/>
       <c r="F52" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="G52" s="14" t="s">
         <v>87</v>
-      </c>
-      <c r="G52" s="14" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -2124,10 +2127,10 @@
       <c r="D53" s="28"/>
       <c r="E53" s="29"/>
       <c r="F53" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="G53" s="14" t="s">
         <v>88</v>
-      </c>
-      <c r="G53" s="14" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.15">
@@ -2135,17 +2138,17 @@
         <v>14</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C54" s="30"/>
       <c r="D54" s="28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E54" s="29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F54" s="21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G54" s="13"/>
     </row>
@@ -2156,7 +2159,7 @@
       <c r="D55" s="28"/>
       <c r="E55" s="29"/>
       <c r="F55" s="21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G55" s="13"/>
     </row>
@@ -2167,10 +2170,10 @@
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
       <c r="F56" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G56" s="14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -2180,10 +2183,10 @@
       <c r="D57" s="28"/>
       <c r="E57" s="29"/>
       <c r="F57" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G57" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -2193,10 +2196,10 @@
       <c r="D58" s="28"/>
       <c r="E58" s="29"/>
       <c r="F58" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G58" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.15">
@@ -2204,17 +2207,17 @@
         <v>15</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C59" s="30"/>
       <c r="D59" s="28" t="s">
         <v>8</v>
       </c>
       <c r="E59" s="29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F59" s="21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G59" s="13"/>
     </row>
@@ -2225,10 +2228,10 @@
       <c r="D60" s="28"/>
       <c r="E60" s="29"/>
       <c r="F60" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G60" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -2236,17 +2239,17 @@
         <v>16</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C61" s="30"/>
       <c r="D61" s="28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E61" s="29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F61" s="21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G61" s="13"/>
     </row>
@@ -2257,7 +2260,7 @@
       <c r="D62" s="28"/>
       <c r="E62" s="29"/>
       <c r="F62" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G62" s="13"/>
     </row>
@@ -2268,10 +2271,10 @@
       <c r="D63" s="28"/>
       <c r="E63" s="29"/>
       <c r="F63" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G63" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="42" x14ac:dyDescent="0.15">
@@ -2281,10 +2284,10 @@
       <c r="D64" s="28"/>
       <c r="E64" s="29"/>
       <c r="F64" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G64" s="14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -2294,7 +2297,7 @@
       <c r="D65" s="28"/>
       <c r="E65" s="29"/>
       <c r="F65" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G65" s="13"/>
     </row>
@@ -2303,17 +2306,17 @@
         <v>17</v>
       </c>
       <c r="B66" s="29" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C66" s="30"/>
       <c r="D66" s="28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E66" s="29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F66" s="21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G66" s="13"/>
     </row>
@@ -2324,7 +2327,7 @@
       <c r="D67" s="28"/>
       <c r="E67" s="29"/>
       <c r="F67" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G67" s="13"/>
     </row>
@@ -2335,10 +2338,10 @@
       <c r="D68" s="28"/>
       <c r="E68" s="29"/>
       <c r="F68" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G68" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -2346,17 +2349,17 @@
         <v>18</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C69" s="30"/>
       <c r="D69" s="31" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E69" s="29" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F69" s="21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G69" s="13"/>
     </row>
@@ -2367,7 +2370,7 @@
       <c r="D70" s="31"/>
       <c r="E70" s="29"/>
       <c r="F70" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G70" s="13"/>
     </row>
@@ -2378,10 +2381,10 @@
       <c r="D71" s="31"/>
       <c r="E71" s="29"/>
       <c r="F71" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G71" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -2389,17 +2392,17 @@
         <v>19</v>
       </c>
       <c r="B72" s="54" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C72" s="55"/>
       <c r="D72" s="28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E72" s="29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F72" s="21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G72" s="13"/>
     </row>
@@ -2410,7 +2413,7 @@
       <c r="D73" s="28"/>
       <c r="E73" s="29"/>
       <c r="F73" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G73" s="13"/>
     </row>
@@ -2421,10 +2424,10 @@
       <c r="D74" s="28"/>
       <c r="E74" s="29"/>
       <c r="F74" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G74" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -2432,17 +2435,17 @@
         <v>20</v>
       </c>
       <c r="B75" s="54" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C75" s="30"/>
       <c r="D75" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="E75" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="E75" s="29" t="s">
-        <v>128</v>
-      </c>
       <c r="F75" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G75" s="13"/>
     </row>
@@ -2453,7 +2456,7 @@
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
       <c r="F76" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G76" s="13"/>
     </row>
@@ -2464,10 +2467,10 @@
       <c r="D77" s="28"/>
       <c r="E77" s="29"/>
       <c r="F77" s="21" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G77" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.15">
@@ -2475,17 +2478,17 @@
         <v>21</v>
       </c>
       <c r="B78" s="29" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C78" s="55"/>
       <c r="D78" s="28" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E78" s="29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F78" s="21" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G78" s="13"/>
     </row>
@@ -2496,7 +2499,7 @@
       <c r="D79" s="28"/>
       <c r="E79" s="29"/>
       <c r="F79" s="21" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G79" s="13"/>
     </row>
@@ -2507,10 +2510,10 @@
       <c r="D80" s="28"/>
       <c r="E80" s="29"/>
       <c r="F80" s="21" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G80" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="42" x14ac:dyDescent="0.15">
@@ -2520,7 +2523,7 @@
       <c r="D81" s="28"/>
       <c r="E81" s="29"/>
       <c r="F81" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G81" s="13"/>
     </row>
@@ -2531,10 +2534,10 @@
       <c r="D82" s="28"/>
       <c r="E82" s="29"/>
       <c r="F82" s="21" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G82" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -2542,17 +2545,17 @@
         <v>22</v>
       </c>
       <c r="B83" s="29" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C83" s="30"/>
       <c r="D83" s="28" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E83" s="25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F83" s="21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G83" s="13"/>
     </row>
@@ -2563,7 +2566,7 @@
       <c r="D84" s="28"/>
       <c r="E84" s="26"/>
       <c r="F84" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G84" s="13"/>
     </row>
@@ -2574,7 +2577,7 @@
       <c r="D85" s="28"/>
       <c r="E85" s="26"/>
       <c r="F85" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G85" s="13"/>
     </row>
@@ -2585,10 +2588,10 @@
       <c r="D86" s="28"/>
       <c r="E86" s="27"/>
       <c r="F86" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G86" s="14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -2596,17 +2599,17 @@
         <v>23</v>
       </c>
       <c r="B87" s="29" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C87" s="30"/>
       <c r="D87" s="28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E87" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F87" s="21" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G87" s="13"/>
     </row>
@@ -2617,10 +2620,10 @@
       <c r="D88" s="28"/>
       <c r="E88" s="26"/>
       <c r="F88" s="21" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G88" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="42" x14ac:dyDescent="0.15">
@@ -2630,10 +2633,10 @@
       <c r="D89" s="28"/>
       <c r="E89" s="27"/>
       <c r="F89" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G89" s="14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -2641,20 +2644,20 @@
         <v>24</v>
       </c>
       <c r="B90" s="29" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C90" s="30"/>
       <c r="D90" s="28" t="s">
         <v>8</v>
       </c>
       <c r="E90" s="29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F90" s="21" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G90" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -2664,10 +2667,10 @@
       <c r="D91" s="28"/>
       <c r="E91" s="29"/>
       <c r="F91" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G91" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="42" x14ac:dyDescent="0.15">
@@ -2677,10 +2680,10 @@
       <c r="D92" s="28"/>
       <c r="E92" s="29"/>
       <c r="F92" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G92" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.15">
@@ -2688,20 +2691,20 @@
         <v>25</v>
       </c>
       <c r="B93" s="54" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C93" s="57"/>
       <c r="D93" s="38" t="s">
         <v>8</v>
       </c>
       <c r="E93" s="29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G93" s="20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -2711,10 +2714,10 @@
       <c r="D94" s="38"/>
       <c r="E94" s="29"/>
       <c r="F94" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G94" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -2724,10 +2727,10 @@
       <c r="D95" s="38"/>
       <c r="E95" s="29"/>
       <c r="F95" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G95" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="42" x14ac:dyDescent="0.15">
@@ -2737,10 +2740,10 @@
       <c r="D96" s="38"/>
       <c r="E96" s="29"/>
       <c r="F96" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G96" s="14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -2748,20 +2751,20 @@
         <v>26</v>
       </c>
       <c r="B97" s="54" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C97" s="57"/>
       <c r="D97" s="38" t="s">
         <v>8</v>
       </c>
       <c r="E97" s="29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G97" s="20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -2771,10 +2774,10 @@
       <c r="D98" s="38"/>
       <c r="E98" s="29"/>
       <c r="F98" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G98" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="42" x14ac:dyDescent="0.15">
@@ -2784,10 +2787,10 @@
       <c r="D99" s="38"/>
       <c r="E99" s="29"/>
       <c r="F99" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G99" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="42" x14ac:dyDescent="0.15">
@@ -2797,10 +2800,10 @@
       <c r="D100" s="38"/>
       <c r="E100" s="29"/>
       <c r="F100" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G100" s="14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="56" customHeight="1" x14ac:dyDescent="0.15">
@@ -2808,17 +2811,17 @@
         <v>27</v>
       </c>
       <c r="B101" s="29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C101" s="30"/>
       <c r="D101" s="28" t="s">
         <v>8</v>
       </c>
       <c r="E101" s="29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F101" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G101" s="13"/>
     </row>
@@ -2829,10 +2832,10 @@
       <c r="D102" s="28"/>
       <c r="E102" s="28"/>
       <c r="F102" s="20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G102" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="56" x14ac:dyDescent="0.15">
@@ -2842,10 +2845,10 @@
       <c r="D103" s="28"/>
       <c r="E103" s="28"/>
       <c r="F103" s="20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G103" s="14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -2853,17 +2856,17 @@
         <v>28</v>
       </c>
       <c r="B104" s="29" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C104" s="30"/>
       <c r="D104" s="28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E104" s="29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F104" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G104" s="13"/>
     </row>
@@ -2874,7 +2877,7 @@
       <c r="D105" s="28"/>
       <c r="E105" s="29"/>
       <c r="F105" s="20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G105" s="13"/>
     </row>
@@ -2885,10 +2888,10 @@
       <c r="D106" s="28"/>
       <c r="E106" s="28"/>
       <c r="F106" s="20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G106" s="14" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="56" x14ac:dyDescent="0.15">
@@ -2898,10 +2901,10 @@
       <c r="D107" s="28"/>
       <c r="E107" s="28"/>
       <c r="F107" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G107" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="70" customHeight="1" x14ac:dyDescent="0.15">
@@ -2909,17 +2912,17 @@
         <v>29</v>
       </c>
       <c r="B108" s="29" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C108" s="30"/>
       <c r="D108" s="28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E108" s="29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F108" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G108" s="13"/>
     </row>
@@ -2930,7 +2933,7 @@
       <c r="D109" s="28"/>
       <c r="E109" s="29"/>
       <c r="F109" s="20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G109" s="13"/>
     </row>
@@ -2941,7 +2944,7 @@
       <c r="D110" s="28"/>
       <c r="E110" s="29"/>
       <c r="F110" s="20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G110" s="13"/>
     </row>
@@ -2952,10 +2955,10 @@
       <c r="D111" s="28"/>
       <c r="E111" s="29"/>
       <c r="F111" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G111" s="14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="70" x14ac:dyDescent="0.15">
@@ -2965,10 +2968,10 @@
       <c r="D112" s="28"/>
       <c r="E112" s="29"/>
       <c r="F112" s="12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G112" s="14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.15">
@@ -2976,20 +2979,20 @@
         <v>30</v>
       </c>
       <c r="B113" s="29" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C113" s="30"/>
       <c r="D113" s="28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E113" s="29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F113" s="21" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G113" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -2999,10 +3002,10 @@
       <c r="D114" s="28"/>
       <c r="E114" s="29"/>
       <c r="F114" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G114" s="14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="13" x14ac:dyDescent="0.15">
